--- a/data/iris.xlsx
+++ b/data/iris.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bambe\Documents\NWMSU\44630_ContinousIntelligence\cintel-03-data\cintel-03-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5731E8FB-E16B-4F1E-9F46-E6BB3950FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF186C13-3172-4EA8-832C-F60D54548D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2630" yWindow="2630" windowWidth="18031" windowHeight="9842"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
   <si>
-    <t>sepal_length</t>
-  </si>
-  <si>
-    <t>sepal_width</t>
-  </si>
-  <si>
-    <t>petal_length</t>
-  </si>
-  <si>
-    <t>petal_width</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
     <t>setosa</t>
   </si>
   <si>
@@ -45,11 +30,26 @@
   <si>
     <t>virginica</t>
   </si>
+  <si>
+    <t>sep_len</t>
+  </si>
+  <si>
+    <t>sep_wid</t>
+  </si>
+  <si>
+    <t>pet_len</t>
+  </si>
+  <si>
+    <t>pet_wid</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,28 +883,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,7 +926,7 @@
         <v>0.2</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -944,7 +946,7 @@
         <v>0.2</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -964,7 +966,7 @@
         <v>0.2</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -984,7 +986,7 @@
         <v>0.2</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1004,7 +1006,7 @@
         <v>0.2</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1024,7 +1026,7 @@
         <v>0.4</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1044,7 +1046,7 @@
         <v>0.3</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1064,7 +1066,7 @@
         <v>0.2</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,7 +1086,7 @@
         <v>0.2</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,7 +1106,7 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1124,7 +1126,7 @@
         <v>0.2</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1144,7 +1146,7 @@
         <v>0.2</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,7 +1166,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1184,7 +1186,7 @@
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,7 +1206,7 @@
         <v>0.2</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,7 +1226,7 @@
         <v>0.4</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1244,7 +1246,7 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,7 +1266,7 @@
         <v>0.3</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,7 +1286,7 @@
         <v>0.3</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1304,7 +1306,7 @@
         <v>0.3</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1324,7 +1326,7 @@
         <v>0.2</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1344,7 +1346,7 @@
         <v>0.4</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1364,7 +1366,7 @@
         <v>0.2</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1384,7 +1386,7 @@
         <v>0.5</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1404,7 +1406,7 @@
         <v>0.2</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1424,7 +1426,7 @@
         <v>0.2</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1444,7 +1446,7 @@
         <v>0.4</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1464,7 +1466,7 @@
         <v>0.2</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1484,7 +1486,7 @@
         <v>0.2</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1504,7 +1506,7 @@
         <v>0.2</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,7 +1526,7 @@
         <v>0.2</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1544,7 +1546,7 @@
         <v>0.4</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1564,7 +1566,7 @@
         <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,7 +1586,7 @@
         <v>0.2</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1604,7 +1606,7 @@
         <v>0.2</v>
       </c>
       <c r="F36" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1624,7 +1626,7 @@
         <v>0.2</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1644,7 +1646,7 @@
         <v>0.2</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1664,7 +1666,7 @@
         <v>0.1</v>
       </c>
       <c r="F39" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1684,7 +1686,7 @@
         <v>0.2</v>
       </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1704,7 +1706,7 @@
         <v>0.2</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1724,7 +1726,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1744,7 +1746,7 @@
         <v>0.3</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1764,7 +1766,7 @@
         <v>0.2</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1784,7 +1786,7 @@
         <v>0.6</v>
       </c>
       <c r="F45" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1804,7 +1806,7 @@
         <v>0.4</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1824,7 +1826,7 @@
         <v>0.3</v>
       </c>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1844,7 +1846,7 @@
         <v>0.2</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1864,7 +1866,7 @@
         <v>0.2</v>
       </c>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1884,7 +1886,7 @@
         <v>0.2</v>
       </c>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1904,7 +1906,7 @@
         <v>0.2</v>
       </c>
       <c r="F51" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1924,7 +1926,7 @@
         <v>1.4</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1944,7 +1946,7 @@
         <v>1.5</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,7 +1966,7 @@
         <v>1.5</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1984,7 +1986,7 @@
         <v>1.3</v>
       </c>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2004,7 +2006,7 @@
         <v>1.5</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2024,7 +2026,7 @@
         <v>1.3</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,7 +2046,7 @@
         <v>1.6</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2064,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2084,7 +2086,7 @@
         <v>1.3</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2104,7 +2106,7 @@
         <v>1.4</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2124,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2144,7 +2146,7 @@
         <v>1.5</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2164,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2184,7 +2186,7 @@
         <v>1.4</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2204,7 +2206,7 @@
         <v>1.3</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2224,7 +2226,7 @@
         <v>1.4</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2244,7 +2246,7 @@
         <v>1.5</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2264,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2284,7 +2286,7 @@
         <v>1.5</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2304,7 +2306,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2324,7 +2326,7 @@
         <v>1.8</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2344,7 +2346,7 @@
         <v>1.3</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2364,7 +2366,7 @@
         <v>1.5</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2384,7 +2386,7 @@
         <v>1.2</v>
       </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2404,7 +2406,7 @@
         <v>1.3</v>
       </c>
       <c r="F76" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2424,7 +2426,7 @@
         <v>1.4</v>
       </c>
       <c r="F77" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2444,7 +2446,7 @@
         <v>1.4</v>
       </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2464,7 +2466,7 @@
         <v>1.7</v>
       </c>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2484,7 +2486,7 @@
         <v>1.5</v>
       </c>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2504,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2524,7 +2526,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2544,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2564,7 +2566,7 @@
         <v>1.2</v>
       </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2584,7 +2586,7 @@
         <v>1.6</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2604,7 +2606,7 @@
         <v>1.5</v>
       </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2624,7 +2626,7 @@
         <v>1.6</v>
       </c>
       <c r="F87" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2644,7 +2646,7 @@
         <v>1.5</v>
       </c>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2664,7 +2666,7 @@
         <v>1.3</v>
       </c>
       <c r="F89" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2684,7 +2686,7 @@
         <v>1.3</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2704,7 +2706,7 @@
         <v>1.3</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2724,7 +2726,7 @@
         <v>1.2</v>
       </c>
       <c r="F92" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2744,7 +2746,7 @@
         <v>1.4</v>
       </c>
       <c r="F93" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2764,7 +2766,7 @@
         <v>1.2</v>
       </c>
       <c r="F94" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2784,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2804,7 +2806,7 @@
         <v>1.3</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2824,7 +2826,7 @@
         <v>1.2</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2844,7 +2846,7 @@
         <v>1.3</v>
       </c>
       <c r="F98" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2864,7 +2866,7 @@
         <v>1.3</v>
       </c>
       <c r="F99" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2884,7 +2886,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2904,7 +2906,7 @@
         <v>1.3</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2924,7 +2926,7 @@
         <v>2.5</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2944,7 +2946,7 @@
         <v>1.9</v>
       </c>
       <c r="F103" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2964,7 +2966,7 @@
         <v>2.1</v>
       </c>
       <c r="F104" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2984,7 +2986,7 @@
         <v>1.8</v>
       </c>
       <c r="F105" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3004,7 +3006,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3024,7 +3026,7 @@
         <v>2.1</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3044,7 +3046,7 @@
         <v>1.7</v>
       </c>
       <c r="F108" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3064,7 +3066,7 @@
         <v>1.8</v>
       </c>
       <c r="F109" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3084,7 +3086,7 @@
         <v>1.8</v>
       </c>
       <c r="F110" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3104,7 +3106,7 @@
         <v>2.5</v>
       </c>
       <c r="F111" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3124,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3144,7 +3146,7 @@
         <v>1.9</v>
       </c>
       <c r="F113" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3164,7 +3166,7 @@
         <v>2.1</v>
       </c>
       <c r="F114" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3184,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3204,7 +3206,7 @@
         <v>2.4</v>
       </c>
       <c r="F116" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3224,7 +3226,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F117" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3244,7 +3246,7 @@
         <v>1.8</v>
       </c>
       <c r="F118" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3264,7 +3266,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F119" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3284,7 +3286,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F120" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3304,7 +3306,7 @@
         <v>1.5</v>
       </c>
       <c r="F121" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3324,7 +3326,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F122" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3344,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3364,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3384,7 +3386,7 @@
         <v>1.8</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3404,7 +3406,7 @@
         <v>2.1</v>
       </c>
       <c r="F126" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3424,7 +3426,7 @@
         <v>1.8</v>
       </c>
       <c r="F127" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3444,7 +3446,7 @@
         <v>1.8</v>
       </c>
       <c r="F128" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3464,7 +3466,7 @@
         <v>1.8</v>
       </c>
       <c r="F129" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3484,7 +3486,7 @@
         <v>2.1</v>
       </c>
       <c r="F130" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3504,7 +3506,7 @@
         <v>1.6</v>
       </c>
       <c r="F131" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3524,7 +3526,7 @@
         <v>1.9</v>
       </c>
       <c r="F132" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3544,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3564,7 +3566,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F134" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3584,7 +3586,7 @@
         <v>1.5</v>
       </c>
       <c r="F135" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3604,7 +3606,7 @@
         <v>1.4</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3624,7 +3626,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F137" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3644,7 +3646,7 @@
         <v>2.4</v>
       </c>
       <c r="F138" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3664,7 +3666,7 @@
         <v>1.8</v>
       </c>
       <c r="F139" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3684,7 +3686,7 @@
         <v>1.8</v>
       </c>
       <c r="F140" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3704,7 +3706,7 @@
         <v>2.1</v>
       </c>
       <c r="F141" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3724,7 +3726,7 @@
         <v>2.4</v>
       </c>
       <c r="F142" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3744,7 +3746,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F143" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3764,7 +3766,7 @@
         <v>1.9</v>
       </c>
       <c r="F144" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3784,7 +3786,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F145" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3804,7 +3806,7 @@
         <v>2.5</v>
       </c>
       <c r="F146" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3824,7 +3826,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F147" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3844,7 +3846,7 @@
         <v>1.9</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3864,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3884,7 +3886,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F150" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3904,7 +3906,7 @@
         <v>1.8</v>
       </c>
       <c r="F151" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
